--- a/Coingecko.xlsx
+++ b/Coingecko.xlsx
@@ -493,37 +493,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$22,879.50</t>
+          <t>$22,742.07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>9.1%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>$39,692,086,019</t>
+          <t>$32,557,010,888</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>$440,868,005,638</t>
+          <t>$438,239,218,261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>$480,469,416,000</t>
+          <t>$477,583,428,000</t>
         </is>
       </c>
     </row>
@@ -540,37 +540,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,625.42</t>
+          <t>$1,635.16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-2.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$8,696,885,600</t>
+          <t>$7,652,325,265</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>$195,875,284,828</t>
+          <t>$197,066,000,983</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>$195,875,284,828</t>
+          <t>$197,066,000,983</t>
         </is>
       </c>
     </row>
@@ -592,32 +592,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>0.0%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$47,073,350,112</t>
+          <t>$41,245,764,637</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>$66,737,282,952</t>
+          <t>$66,830,551,038</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$66,737,282,952</t>
+          <t>$66,830,551,038</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-0.0%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>$3,716,791,069</t>
+          <t>$3,099,263,711</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>$43,423,036,573</t>
+          <t>$43,585,014,655</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>$43,422,855,750</t>
+          <t>$43,584,451,541</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$301.77</t>
+          <t>$305.18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -691,27 +691,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2.9%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>$801,908,078</t>
+          <t>$487,665,952</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>$40,714,621,459</t>
+          <t>$41,170,051,339</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>$60,357,983,304</t>
+          <t>$61,033,141,960</t>
         </is>
       </c>
     </row>
@@ -728,37 +728,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$0.404931</t>
+          <t>$0.409106</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-2.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$920,968,223</t>
+          <t>$1,060,571,797</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$20,572,047,190</t>
+          <t>$20,779,549,921</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$40,498,645,087</t>
+          <t>$40,907,140,136</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>$11,282,456,998</t>
+          <t>$10,007,396,152</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>$16,154,257,174</t>
+          <t>$16,038,503,786</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>$16,154,257,174</t>
+          <t>$16,038,503,786</t>
         </is>
       </c>
     </row>
@@ -822,37 +822,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$0.381328</t>
+          <t>$0.372932</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.3%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>$648,002,665</t>
+          <t>$691,099,691</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>$13,384,715,756</t>
+          <t>$13,043,937,539</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>$17,186,812,698</t>
+          <t>$16,749,232,140</t>
         </is>
       </c>
     </row>
@@ -869,32 +869,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$0.085645</t>
+          <t>$0.090351</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>$724,812,212</t>
+          <t>$1,172,197,620</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>$11,785,068,870</t>
+          <t>$12,421,415,297</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -916,131 +916,131 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$25.09</t>
+          <t>$24.55</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-3.8%</t>
+          <t>-2.7%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>$1,280,445,895</t>
+          <t>$939,673,239</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>$9,309,199,707</t>
+          <t>$9,101,189,023</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>$13,520,676,852</t>
+          <t>$13,218,573,437</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>MATIC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$37.32</t>
+          <t>$1.00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>$42,292,777</t>
+          <t>$523,709,489</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>$9,205,731,895</t>
+          <t>$8,979,621,638</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>$11,197,417,520</t>
+          <t>$10,004,626,575</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MATIC</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$0.994868</t>
+          <t>$36.11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-4.5%</t>
+          <t>-4.1%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>$482,799,746</t>
+          <t>$31,448,036</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>$8,923,606,750</t>
+          <t>$8,910,225,267</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>$9,942,217,706</t>
+          <t>$10,837,977,213</t>
         </is>
       </c>
     </row>
@@ -1057,37 +1057,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$1,619.62</t>
+          <t>$1,628.61</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>$18,639,229</t>
+          <t>$14,485,327</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>$7,962,057,847</t>
+          <t>$8,010,313,490</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>$7,962,057,847</t>
+          <t>$8,010,205,299</t>
         </is>
       </c>
     </row>
@@ -1104,37 +1104,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$6.25</t>
+          <t>$6.30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>$304,450,955</t>
+          <t>$248,832,394</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>$7,465,626,458</t>
+          <t>$7,499,990,910</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>$7,971,574,198</t>
+          <t>$8,008,103,955</t>
         </is>
       </c>
     </row>
@@ -1151,32 +1151,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$0.00001209</t>
+          <t>$0.00001210</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>15.9%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>$420,387,844</t>
+          <t>$467,929,769</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>$7,122,288,308</t>
+          <t>$7,128,735,826</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1198,37 +1198,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$88.51</t>
+          <t>$88.26</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>$601,547,727</t>
+          <t>$494,023,745</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>$6,375,577,049</t>
+          <t>$6,362,173,926</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>$7,426,850,296</t>
+          <t>$7,410,589,684</t>
         </is>
       </c>
     </row>
@@ -1245,37 +1245,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$0.061742</t>
+          <t>$0.061961</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-2.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>$301,342,669</t>
+          <t>$255,114,797</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>$5,672,199,470</t>
+          <t>$5,694,689,576</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>$5,672,204,073</t>
+          <t>$5,694,700,353</t>
         </is>
       </c>
     </row>
@@ -1292,37 +1292,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$17.18</t>
+          <t>$17.80</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>$391,753,715</t>
+          <t>$555,381,015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>$5,398,826,164</t>
+          <t>$5,591,782,451</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>$12,360,731,816</t>
+          <t>$12,802,320,962</t>
         </is>
       </c>
     </row>
@@ -1344,32 +1344,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-0.0%</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>$219,794,789</t>
+          <t>$168,015,767</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>$5,135,603,151</t>
+          <t>$5,152,403,460</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>$5,135,603,151</t>
+          <t>$5,152,403,460</t>
         </is>
       </c>
     </row>
@@ -1386,37 +1386,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$6.77</t>
+          <t>$6.85</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>$126,481,967</t>
+          <t>$208,576,803</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>$5,099,636,924</t>
+          <t>$5,148,380,402</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>$6,765,537,861</t>
+          <t>$6,830,204,396</t>
         </is>
       </c>
     </row>
@@ -1433,37 +1433,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$22,822.83</t>
+          <t>$22,703.01</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8.3%</t>
+          <t>8.8%</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>$174,215,519</t>
+          <t>$113,417,260</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>$4,110,448,902</t>
+          <t>$4,091,265,751</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>$4,110,448,902</t>
+          <t>$4,091,265,751</t>
         </is>
       </c>
     </row>
@@ -1480,32 +1480,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$13.01</t>
+          <t>$13.32</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-3.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>$218,403,748</t>
+          <t>$257,948,050</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>$3,805,169,310</t>
+          <t>$3,891,731,447</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1527,37 +1527,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$6.88</t>
+          <t>$7.07</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>$314,449,452</t>
+          <t>$468,043,814</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>$3,381,523,120</t>
+          <t>$3,474,173,950</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>$6,878,607,237</t>
+          <t>$7,067,075,169</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$2.27</t>
+          <t>$2.28</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1584,69 +1584,69 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>$35,775,751</t>
+          <t>$34,881,044</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>$3,345,929,815</t>
+          <t>$3,359,563,609</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>$11,483,224,431</t>
+          <t>$11,530,015,585</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LEO Token</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$3.46</t>
+          <t>$178.45</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>$485,951</t>
+          <t>$77,517,902</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>$3,225,037,298</t>
+          <t>$3,238,542,570</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1658,42 +1658,42 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>LEO Token</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$176.59</t>
+          <t>$3.46</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>$96,363,737</t>
+          <t>$388,424</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>$3,201,649,355</t>
+          <t>$3,223,095,609</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1715,37 +1715,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$21.89</t>
+          <t>$22.90</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>$181,222,892</t>
+          <t>$360,408,747</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>$3,039,978,295</t>
+          <t>$3,182,011,969</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>$4,606,516,994</t>
+          <t>$4,822,149,469</t>
         </is>
       </c>
     </row>
@@ -1762,37 +1762,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$129.04</t>
+          <t>$132.05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>$569,006,091</t>
+          <t>$527,909,918</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>$2,488,542,818</t>
+          <t>$2,547,998,507</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>$2,709,051,566</t>
+          <t>$2,773,659,674</t>
         </is>
       </c>
     </row>
@@ -1809,54 +1809,54 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$0.091574</t>
+          <t>$0.092524</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>$85,801,247</t>
+          <t>$78,926,659</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>$2,403,480,610</t>
+          <t>$2,427,167,515</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>$4,580,659,928</t>
+          <t>$4,625,804,107</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>NEAR Protocol</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$13.95</t>
+          <t>$2.58</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1866,215 +1866,215 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11.3%</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>80.1%</t>
+          <t>15.4%</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>$1,903,354,755</t>
+          <t>$389,164,919</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>$2,220,101,677</t>
+          <t>$2,192,290,811</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>$14,123,896,758</t>
+          <t>$2,581,491,511</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ApeCoin</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>APE</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$5.64</t>
+          <t>$13.62</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-2.9%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8.6%</t>
+          <t>71.1%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>$475,555,165</t>
+          <t>$924,021,473</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>$2,078,205,182</t>
+          <t>$2,173,857,552</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>$5,638,199,732</t>
+          <t>$13,819,759,963</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>ApeCoin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>APE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$140.74</t>
+          <t>$5.76</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>12.2%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>$38,813,977</t>
+          <t>$322,914,878</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>$2,049,031,902</t>
+          <t>$2,112,974,599</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>$2,058,654,539</t>
+          <t>$5,732,529,645</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NEAR Protocol</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$2.39</t>
+          <t>$144.48</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>$227,942,574</t>
+          <t>$40,286,492</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>$2,018,687,533</t>
+          <t>$2,098,335,759</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>$2,379,277,518</t>
+          <t>$2,108,189,936</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$2.38</t>
+          <t>$5.51</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10.1%</t>
+          <t>17.1%</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>$216,940,254</t>
+          <t>$490,177,917</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>$1,993,241,250</t>
+          <t>$2,026,294,977</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>$2,386,884,904</t>
+          <t>$10,812,944,708</t>
         </is>
       </c>
     </row>
@@ -2091,32 +2091,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$0.078403</t>
+          <t>$0.078897</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>$29,859,711</t>
+          <t>$26,198,449</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>$1,979,993,662</t>
+          <t>$1,992,330,503</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2128,252 +2128,252 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$5.32</t>
+          <t>$2.36</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>11.0%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>$282,440,187</t>
+          <t>$159,398,932</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>$1,905,766,536</t>
+          <t>$1,970,668,845</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>$10,179,384,189</t>
+          <t>$2,359,058,164</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$0.070864</t>
+          <t>$0.249819</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-2.9%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>33.1%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>$91,282,197</t>
+          <t>$144,519,872</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>$1,786,845,662</t>
+          <t>$1,794,191,843</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>$3,543,732,282</t>
+          <t>$2,492,188,947</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$0.245568</t>
+          <t>$0.069806</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-1.0%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>33.7%</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>$103,685,285</t>
+          <t>$59,065,238</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>$1,765,370,090</t>
+          <t>$1,765,521,456</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>$2,452,154,323</t>
+          <t>$3,486,156,926</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$0.02207195</t>
+          <t>$5.73</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>$66,050,206</t>
+          <t>$80,207,343</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>$1,598,494,587</t>
+          <t>$1,627,555,228</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>$1,911,563,720</t>
+          <t>$2,683,878,595</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$5.59</t>
+          <t>$0.02230193</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>$55,104,442</t>
+          <t>$71,507,511</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>$1,585,964,871</t>
+          <t>$1,615,872,956</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>$2,615,453,305</t>
+          <t>$1,932,345,686</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Decentraland</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MANA</t>
+          <t>AXS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$0.725781</t>
+          <t>$13.26</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2383,309 +2383,309 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-4.5%</t>
+          <t>44.7%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>21.5%</t>
+          <t>41.9%</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>$344,147,113</t>
+          <t>$719,321,317</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>$1,325,273,550</t>
+          <t>$1,518,342,972</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>$1,596,635,408</t>
+          <t>$3,570,950,071</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>MANA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$0.797984</t>
+          <t>$0.730489</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>19.7%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>$250,623,236</t>
+          <t>$267,422,982</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>$1,264,021,170</t>
+          <t>$1,326,696,799</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>$2,398,246,025</t>
+          <t>$1,598,351,655</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$84.92</t>
+          <t>$0.807463</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-4.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>11.8%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>$102,059,720</t>
+          <t>$258,636,990</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>$1,209,005,756</t>
+          <t>$1,273,911,593</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>$1,358,835,454</t>
+          <t>$2,417,011,270</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$1.09</t>
+          <t>$1.20</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>11.3%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>10.4%</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>$119,790,947</t>
+          <t>$103,533,834</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>$1,178,048,646</t>
+          <t>$1,239,055,130</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$1,686,107,822</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$1.09</t>
+          <t>$86.63</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>9.7%</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>$56,859,655</t>
+          <t>$156,510,152</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>$1,133,810,047</t>
+          <t>$1,231,945,063</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>$1,542,890,177</t>
+          <t>$1,384,537,002</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Terra Luna Classic</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LUNC</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$0.00018171</t>
+          <t>$1.09</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>$189,402,645</t>
+          <t>$167,561,637</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>$1,082,820,354</t>
+          <t>$1,189,224,911</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>$1,246,113,079</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Terra Luna Classic</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>LUNC</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$9.15</t>
+          <t>$0.00018215</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>$97,828,571</t>
+          <t>$147,356,471</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>$1,049,659,312</t>
+          <t>$1,086,840,299</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>$2,468,692,455</t>
+          <t>$1,250,923,920</t>
         </is>
       </c>
     </row>
@@ -2702,319 +2702,319 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$42.85</t>
+          <t>$44.15</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>8.1%</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>$29,295,285</t>
+          <t>$38,308,432</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>$1,042,757,357</t>
+          <t>$1,074,786,515</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>$1,345,767,613</t>
+          <t>$1,386,838,093</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$1.13</t>
+          <t>$1.06</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>12.3%</t>
+          <t>14.6%</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>$64,778,363</t>
+          <t>$52,016,389</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>$1,032,738,586</t>
+          <t>$1,062,758,174</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$1,062,758,174</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Frax</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRAX</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$0.999925</t>
+          <t>$1.11</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>$17,839,018</t>
+          <t>$34,836,051</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>$1,017,598,389</t>
+          <t>$1,020,561,764</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>$1,017,598,389</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>Frax</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>FRAX</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$1.01</t>
+          <t>$0.998433</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>$32,967,481</t>
+          <t>$12,103,253</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>$1,013,883,462</t>
+          <t>$1,017,014,914</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>$1,013,883,462</t>
+          <t>$1,017,014,914</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TrueUSD</t>
+          <t>Fantom</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TUSD</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t>$0.378257</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>10.6%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>16.0%</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>$47,201,215</t>
+          <t>$482,252,235</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>$939,068,685</t>
+          <t>$963,527,693</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$1,203,863,265</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Pax Dollar</t>
+          <t>TrueUSD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>USDP</t>
+          <t>TUSD</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$0.998338</t>
+          <t>$1.00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>$2,558,488</t>
+          <t>$43,320,336</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>$907,189,905</t>
+          <t>$940,606,962</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>$907,189,905</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fantom</t>
+          <t>Pax Dollar</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>USDP</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$0.342465</t>
+          <t>$1.00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-4.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>$222,350,853</t>
+          <t>$1,710,029</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>$872,234,696</t>
+          <t>$913,131,941</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>$1,089,798,785</t>
+          <t>$913,131,941</t>
         </is>
       </c>
     </row>
@@ -3031,37 +3031,37 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$44.52</t>
+          <t>$44.68</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>-1.1%</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>$18,391,207</t>
+          <t>$17,996,464</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>$854,972,250</t>
+          <t>$859,407,375</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>$931,918,708</t>
+          <t>$936,752,989</t>
         </is>
       </c>
     </row>
@@ -3078,225 +3078,225 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$4.99</t>
+          <t>$5.08</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-6.2%</t>
+          <t>-1.0%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>$11,052,411</t>
+          <t>$10,038,645</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>$810,475,215</t>
+          <t>$825,037,159</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>$1,018,609,242</t>
+          <t>$1,036,910,766</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KuCoin</t>
+          <t>Curve DAO</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$8.03</t>
+          <t>$1.08</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>30.2%</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>$1,835,870</t>
+          <t>$206,019,817</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>$781,429,586</t>
+          <t>$783,795,247</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$3,572,106,654</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Frax Share</t>
+          <t>KuCoin</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FXS</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$10.43</t>
+          <t>$7.93</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-7.7%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>51.4%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>$39,725,235</t>
+          <t>$1,375,743</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>$762,273,337</t>
+          <t>$772,620,367</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>$1,041,315,037</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Curve DAO</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$1.02</t>
+          <t>$0.084791</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>25.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>$123,562,166</t>
+          <t>$50,842,008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>$740,483,119</t>
+          <t>$748,323,483</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>$3,375,646,774</t>
+          <t>$846,699,846</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Frax Share</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>FXS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$0.082981</t>
+          <t>$10.12</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>20.4%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>$43,554,640</t>
+          <t>$32,260,813</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>$732,137,538</t>
+          <t>$739,630,215</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>$828,386,059</t>
+          <t>$1,010,299,342</t>
         </is>
       </c>
     </row>
@@ -3313,17 +3313,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$0.136231</t>
+          <t>$0.138292</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-2.0%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3333,17 +3333,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>$133,643,244</t>
+          <t>$159,893,608</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>$726,671,274</t>
+          <t>$738,260,886</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>$1,208,686,781</t>
+          <t>$1,227,964,013</t>
         </is>
       </c>
     </row>
@@ -3360,32 +3360,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$0.983953</t>
+          <t>$0.988958</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>$31,471,078</t>
+          <t>$41,120,292</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>$713,369,366</t>
+          <t>$717,575,714</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3407,37 +3407,37 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$0.000000736023</t>
+          <t>$0.000000743638</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>$9,285,764</t>
+          <t>$8,601,923</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>$701,711,072</t>
+          <t>$703,864,820</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>$730,164,080</t>
+          <t>$732,405,159</t>
         </is>
       </c>
     </row>
@@ -3454,37 +3454,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$35.99</t>
+          <t>$35.02</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>-1.6%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>15.6%</t>
+          <t>9.4%</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>$14,396,473</t>
+          <t>$9,618,047</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>$688,273,045</t>
+          <t>$669,838,233</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>$688,273,045</t>
+          <t>$669,838,233</t>
         </is>
       </c>
     </row>
@@ -3501,314 +3501,314 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$3.82</t>
+          <t>$3.86</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>$50,266,493</t>
+          <t>$58,901,717</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>$646,527,637</t>
+          <t>$661,123,474</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>$2,864,080,406</t>
+          <t>$2,885,845,964</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Klaytn</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>KLAY</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$712.63</t>
+          <t>$0.210167</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>11.1%</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>$19,294,440</t>
+          <t>$47,832,726</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>$641,963,285</t>
+          <t>$647,647,496</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>$716,227,309</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Trust Wallet</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TWT</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$1.52</t>
+          <t>$715.07</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-4.4%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>$38,420,344</t>
+          <t>$19,772,791</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>$631,038,148</t>
+          <t>$643,647,203</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$718,106,027</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Trust Wallet</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>TWT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$47.90</t>
+          <t>$1.53</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-2.0%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>$58,595,587</t>
+          <t>$33,626,715</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>$626,863,085</t>
+          <t>$636,118,556</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>$1,003,750,774</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MIOTA</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$0.224298</t>
+          <t>$48.30</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>$14,120,570</t>
+          <t>$58,425,574</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>$622,887,415</t>
+          <t>$633,026,218</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$1,014,626,523</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Synthetix Network</t>
+          <t>eCash</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SNX</t>
+          <t>XEC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$2.58</t>
+          <t>$0.00003276</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>7.2%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>22.2%</t>
+          <t>8.2%</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>$41,527,822</t>
+          <t>$37,238,282</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>$620,444,375</t>
+          <t>$631,936,545</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>$806,271,131</t>
+          <t>$688,046,368</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Klaytn</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KLAY</t>
+          <t>MIOTA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$0.199603</t>
+          <t>$0.226094</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>$32,629,941</t>
+          <t>$19,370,843</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>$615,167,943</t>
+          <t>$628,285,694</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3820,94 +3820,94 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BitDAO</t>
+          <t>Synthetix Network</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIT</t>
+          <t>SNX</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$0.528602</t>
+          <t>$2.60</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>19.9%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>$19,460,176</t>
+          <t>$36,018,358</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>$614,621,715</t>
+          <t>$625,263,475</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>$5,067,552,652</t>
+          <t>$812,533,580</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>eCash</t>
+          <t>BitDAO</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>XEC</t>
+          <t>BIT</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$0.00003081</t>
+          <t>$0.535169</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>$9,891,493</t>
+          <t>$37,121,730</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>$593,818,900</t>
+          <t>$623,795,844</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>$646,573,370</t>
+          <t>$5,143,193,292</t>
         </is>
       </c>
     </row>
@@ -3924,32 +3924,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$4.03</t>
+          <t>$4.10</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>$518,251</t>
+          <t>$419,225</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>$586,692,827</t>
+          <t>$596,418,918</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3971,32 +3971,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$52.07</t>
+          <t>$52.93</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>$74,238,523</t>
+          <t>$88,536,725</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>$577,559,539</t>
+          <t>$587,698,869</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4023,32 +4023,32 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>$911,473</t>
+          <t>$193,477</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>$573,130,384</t>
+          <t>$573,991,725</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>$573,130,384</t>
+          <t>$573,991,725</t>
         </is>
       </c>
     </row>
@@ -4065,32 +4065,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$8.00</t>
+          <t>$8.09</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>$21,476,940</t>
+          <t>$27,445,577</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>$562,709,525</t>
+          <t>$569,604,822</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4112,242 +4112,242 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$6.95</t>
+          <t>$6.99</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-2.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>$9,444,846</t>
+          <t>$9,444,383</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>$555,427,096</t>
+          <t>$559,146,441</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>$694,318,586</t>
+          <t>$698,968,000</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cUSDC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CUSDC</t>
+          <t>OKT</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$0.02274657</t>
+          <t>$30.98</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>$3.14</t>
+          <t>$4,118,385</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>$551,228,674</t>
+          <t>$552,958,740</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$1,291,658,534</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>cUSDC</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>OKT</t>
+          <t>CUSDC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$30.31</t>
+          <t>$0.02274419</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>$5,423,113</t>
+          <t>$9.34</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>$541,094,180</t>
+          <t>$548,237,955</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>$1,263,944,062</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>THORChain</t>
+          <t>ImmutableX</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RUNE</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$1.76</t>
+          <t>$0.691685</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-4.4%</t>
+          <t>9.7%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>17.3%</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>$78,930,188</t>
+          <t>$27,145,946</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>$529,057,674</t>
+          <t>$542,554,769</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>$879,708,492</t>
+          <t>$1,381,074,957</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>THORChain</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>RUNE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$1,916.30</t>
+          <t>$1.75</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>$8,127,413</t>
+          <t>$79,876,802</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>$517,419,384</t>
+          <t>$527,366,524</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$876,896,475</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mina Protocol</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$0.603767</t>
+          <t>$1,918.18</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4357,309 +4357,309 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>$35,526,270</t>
+          <t>$7,143,375</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>$490,138,387</t>
+          <t>$517,843,900</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>$599,793,244</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>Osmosis</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>OSMO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$2.28</t>
+          <t>$0.975869</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>15.6%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>32.2%</t>
+          <t>14.0%</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>$496,450,304</t>
+          <t>$104,592,670</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>$489,478,936</t>
+          <t>$506,426,997</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>$9,789,578,715</t>
+          <t>$975,980,681</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ImmutableX</t>
+          <t>Arweave</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$0.639485</t>
+          <t>$10.13</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>14.0%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>$12,885,969</t>
+          <t>$55,288,248</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>$488,857,295</t>
+          <t>$506,178,531</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>$1,275,609,672</t>
+          <t>$666,708,876</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Arweave</t>
+          <t>Mina Protocol</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$9.46</t>
+          <t>$0.591397</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-3.5%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>$33,257,275</t>
+          <t>$40,813,580</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>$471,804,299</t>
+          <t>$481,758,011</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>$621,433,140</t>
+          <t>$589,033,871</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cETH</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CETH</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$32.66</t>
+          <t>$2.23</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>22.4%</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>$3,188</t>
+          <t>$321,637,935</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>$470,082,186</t>
+          <t>$477,827,505</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>$470,082,186</t>
+          <t>$9,556,550,092</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>cETH</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>CETH</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$1,889.72</t>
+          <t>$32.81</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>$602,449</t>
+          <t>$2,604</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>$467,107,088</t>
+          <t>$476,802,507</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>$467,107,088</t>
+          <t>$476,802,507</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cDAI</t>
+          <t>Terra</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CDAI</t>
+          <t>LUNA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$0.02214218</t>
+          <t>$2.33</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>13.2%</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>$1,964</t>
+          <t>$218,802,745</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>$466,600,926</t>
+          <t>$471,013,281</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>$466,600,926</t>
+          <t>$2,459,735,972</t>
         </is>
       </c>
     </row>
@@ -4676,242 +4676,242 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$0.828856</t>
+          <t>$0.839436</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>13.2%</t>
+          <t>14.2%</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>$12,869,149</t>
+          <t>$9,374,627</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>$464,239,608</t>
+          <t>$470,087,868</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>$828,999,285</t>
+          <t>$839,442,606</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Terra</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LUNA</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$2.30</t>
+          <t>$1,894.15</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>25.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>$345,609,223</t>
+          <t>$728,155</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>$463,413,788</t>
+          <t>$468,125,890</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>$2,425,731,860</t>
+          <t>$468,125,890</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Osmosis</t>
+          <t>cDAI</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>OSMO</t>
+          <t>CDAI</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$0.889422</t>
+          <t>$0.02217649</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>$34,457,950</t>
+          <t>$1,618</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>$461,848,129</t>
+          <t>$467,911,815</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>$891,009,664</t>
+          <t>$467,911,815</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>Zilliqa</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>ZIL</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$0.04012910</t>
+          <t>$0.02865996</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-7.5%</t>
+          <t>10.7%</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>$12,554,147</t>
+          <t>$86,159,885</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>$439,622,440</t>
+          <t>$460,601,934</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>$4,033,892,868</t>
+          <t>$602,823,522</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Zilliqa</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ZIL</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$0.02738139</t>
+          <t>$0.04031962</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-6.9%</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>$57,635,134</t>
+          <t>$11,282,263</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>$439,408,644</t>
+          <t>$441,785,050</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>$575,186,722</t>
+          <t>$4,053,793,084</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Enjin Coin</t>
+          <t>EthereumPoW</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ENJ</t>
+          <t>ETHW</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$0.435684</t>
+          <t>$4.10</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4921,121 +4921,121 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>24.2%</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>$82,784,495</t>
+          <t>$17,144,838</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>$434,850,971</t>
+          <t>$441,614,123</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>$434,850,971</t>
+          <t>$441,613,197</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EthereumPoW</t>
+          <t>Enjin Coin</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ETHW</t>
+          <t>ENJ</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$3.97</t>
+          <t>$0.438178</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>21.5%</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>$14,636,200</t>
+          <t>$72,985,410</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>$426,832,275</t>
+          <t>$437,456,980</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>$426,831,380</t>
+          <t>$437,456,980</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GMX</t>
+          <t>1inch</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GMX</t>
+          <t>1INCH</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$50.02</t>
+          <t>$0.533599</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>$17,735,979</t>
+          <t>$77,270,722</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>$418,267,103</t>
+          <t>$424,987,531</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>$659,933,800</t>
+          <t>$799,642,464</t>
         </is>
       </c>
     </row>
@@ -5052,131 +5052,131 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$0.04137141</t>
+          <t>$0.04200492</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>$419,796</t>
+          <t>$557,212</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>$415,774,793</t>
+          <t>$424,349,557</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>$989,475,155</t>
+          <t>$1,009,811,590</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>GMX</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>GMX</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$3.01</t>
+          <t>$49.57</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>-3.2%</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>$3,580,433</t>
+          <t>$35,460,252</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>$413,576,447</t>
+          <t>$416,146,091</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>$673,803,793</t>
+          <t>$656,475,583</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kava</t>
+          <t>Helium</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KAVA</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$1.06</t>
+          <t>$3.02</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>25.1%</t>
+          <t>-0.0%</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>$35,646,222</t>
+          <t>$3,990,475</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>$408,175,438</t>
+          <t>$413,646,114</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$673,538,723</t>
         </is>
       </c>
     </row>
